--- a/Projects 2023/Visa KHI Fit Out Project DMC Karachi/Variation orders/Summary of VOs.xlsx
+++ b/Projects 2023/Visa KHI Fit Out Project DMC Karachi/Variation orders/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C878AD7-F65B-4771-994D-058B8717F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4CEC5A-4B24-465A-A5C6-650CB70CFB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,17 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Sr #</t>
   </si>
@@ -89,14 +90,17 @@
   <si>
     <t>Pending</t>
   </si>
+  <si>
+    <t>Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -200,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,49 +213,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -259,7 +230,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -274,69 +245,67 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,6 +544,28 @@
         <row r="28">
           <cell r="I28">
             <v>38635.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="30">
+          <cell r="J30">
+            <v>336661.62</v>
           </cell>
         </row>
       </sheetData>
@@ -872,231 +863,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="30.5703125" style="1"/>
+    <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="E14" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="20">
         <f>[1]Sheet1!$I$34</f>
         <v>101239.20000000001</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="20">
         <v>90688</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="E16" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="20">
         <f>[2]Sheet1!$H$24</f>
         <v>1602810.2</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="22">
+        <f>C17</f>
+        <v>1602810.2</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="20">
         <f>[3]Sheet1!$I$36</f>
         <v>592497</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="20">
         <v>478977</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="E18" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="20">
         <f>[4]Sheet1!$I$31</f>
         <v>119325</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="20">
         <v>109650</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="20">
         <f>[5]Sheet1!$I$29</f>
         <v>30960</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="20">
         <f>[5]Sheet1!$I$29</f>
         <v>30960</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="24">
         <f>[6]Sheet1!$I$31</f>
         <v>260838</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="24">
+        <f>[9]Sheet1!$J$30</f>
+        <v>336661.62</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="24">
         <f>[7]Sheet1!$I$33</f>
         <v>167803.2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="24">
         <v>162643</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="E22" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="24">
         <v>240000</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="24">
         <v>240000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="E23" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="24">
         <f>[8]Sheet1!$I$28</f>
         <v>38635.5</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="24">
         <f>[8]Sheet1!$I$28</f>
         <v>38635.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+      <c r="E24" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="27">
         <f>SUM(C16:C25)</f>
         <v>3154108.1</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="27">
         <f>SUM(D16:D25)</f>
-        <v>1151553.5</v>
-      </c>
+        <v>3091025.3200000003</v>
+      </c>
+      <c r="E26" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="10"/>
+      <c r="E30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1105,7 +1131,7 @@
     <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>